--- a/html/resources/hiragana32.xlsx
+++ b/html/resources/hiragana32.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C343D064-A0F0-4265-B465-81EC75713FB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,15 +16,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
-    <t>P t f e T q</t>
-  </si>
-  <si>
     <t>learnt_letters</t>
   </si>
   <si>
-    <t>1   2   3   4   5  6</t>
-  </si>
-  <si>
     <t>numbers</t>
   </si>
   <si>
@@ -36,28 +29,21 @@
   </si>
   <si>
     <t>Least Probable</t>
+  </si>
+  <si>
+    <t>Hselect3.jpg</t>
+  </si>
+  <si>
+    <t>Nselect3.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="60"/>
-      <color theme="1"/>
-      <name val="hiragana tfb"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="60"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -95,12 +81,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -194,23 +179,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -246,23 +214,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -438,11 +389,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -454,35 +405,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="37.5">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="37.5">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="79.5">
-      <c r="A2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="79.5">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
